--- a/public/template/3 Honor Fasilitator/5 Kuitansi Honor Fasilitator.xlsx
+++ b/public/template/3 Honor Fasilitator/5 Kuitansi Honor Fasilitator.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\administrasi-fkp\public\template\3 Honor Fasilitator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFAEF6E-641E-4E24-8040-6B3428DA337B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,26 +139,33 @@
     <t>Honor Fasilitator Forum Konsultasi Publik dalam rangka Pendataan Awal Registrasi Sosial Ekonomi 2022 di Kecamatan xxxxxx Kabupaten Probolinggo dengan rincian:</t>
   </si>
   <si>
-    <t>Seratus Sembilan Puluh Lima Ribu Rupiah</t>
+    <t>yyyyyy</t>
   </si>
   <si>
-    <t>yyyyyy</t>
+    <t>Dua Ratus Ribu Rupiah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,49 +365,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,109 +459,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,11 +832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA862"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:N20"/>
+      <selection activeCell="E11" sqref="E11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,23 +1007,23 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1097,17 +1104,17 @@
       <c r="D9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="4"/>
       <c r="O9" s="12"/>
       <c r="P9" s="4"/>
@@ -1132,17 +1139,17 @@
       <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>34</v>
+      <c r="E10" s="54" t="s">
+        <v>35</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="4"/>
       <c r="O10" s="12"/>
       <c r="P10" s="4"/>
@@ -1167,18 +1174,18 @@
       <c r="D11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
       <c r="O11" s="12"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1198,16 +1205,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="12"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1251,11 +1258,11 @@
       <c r="L13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="51">
         <f>H13*J13</f>
         <v>200000</v>
       </c>
-      <c r="N13" s="50"/>
+      <c r="N13" s="51"/>
       <c r="O13" s="12"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1288,11 +1295,11 @@
       <c r="L14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="50">
         <f>M13</f>
         <v>200000</v>
       </c>
-      <c r="N14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="12"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1325,10 +1332,10 @@
       <c r="L15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="50">
         <v>5000</v>
       </c>
-      <c r="N15" s="49"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="12"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1362,11 +1369,11 @@
       <c r="L16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="50">
         <f>M14-M15</f>
         <v>195000</v>
       </c>
-      <c r="N16" s="49"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="12"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1394,8 +1401,8 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="12"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1454,8 +1461,8 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="53" t="s">
-        <v>35</v>
+      <c r="M19" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="4"/>
@@ -1510,10 +1517,10 @@
       <c r="A21" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="4"/>
       <c r="G21" s="13" t="s">
         <v>13</v>
@@ -1522,9 +1529,9 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="12"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
